--- a/biology/Zoologie/Ecdyonurus_venosus/Ecdyonurus_venosus.xlsx
+++ b/biology/Zoologie/Ecdyonurus_venosus/Ecdyonurus_venosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ecdyonurus venosus est une espèce d'insectes éphéméroptères, extrêmement répandue en Europe. Elle est souvent confondue avec Ecdyonurus torrentis : les deux espèces sont très proches par leur aspect et leur localisation.
 C'est une éphémère de très grande taille, puisque le mâle peut, avec les cerques, atteindre la taille de 55 millimètres.
@@ -512,7 +524,9 @@
           <t>Caractéristiques physiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nymphe : de 10 à 18 mm pour le corps
 Imago :
@@ -548,7 +562,9 @@
           <t>Éclosion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À partir du mois de mai et jusqu'en septembre, sur pratiquement toutes les rivières d'Europe du sud.
  Portail de l’entomologie                     </t>
